--- a/OnBoard/output/trust/catch/Catch_Trust_76.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_76.xlsx
@@ -1884,7 +1884,7 @@
         <v>0.013</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>6.8504</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="G38">
-        <v>0.036</v>
+        <v>0.005</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>6.8504</v>
@@ -2048,7 +2048,7 @@
         <v>0.025</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
         <v>6.8504</v>
@@ -2130,7 +2130,7 @@
         <v>0.017</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>6.8504</v>
@@ -2458,7 +2458,7 @@
         <v>0.536</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I51">
         <v>6.8504</v>
@@ -2540,7 +2540,7 @@
         <v>0.258</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I53">
         <v>6.8504</v>
